--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3741.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3741.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.234907630814907</v>
+        <v>4.295175552368164</v>
       </c>
       <c r="B1">
-        <v>2.443373275863169</v>
+        <v>2.507584571838379</v>
       </c>
       <c r="C1">
-        <v>4.975997345421672</v>
+        <v>1.273186445236206</v>
       </c>
       <c r="D1">
-        <v>2.950406075144383</v>
+        <v>0.5792209506034851</v>
       </c>
       <c r="E1">
-        <v>1.165171122148454</v>
+        <v>0.4919843375682831</v>
       </c>
     </row>
   </sheetData>
